--- a/libertadores/datasets_liberta/links_times_cartola_liga_eliminacao.xlsx
+++ b/libertadores/datasets_liberta/links_times_cartola_liga_eliminacao.xlsx
@@ -25,28 +25,28 @@
     <t>Link do Time</t>
   </si>
   <si>
-    <t>S.E.R. GRILLO</t>
-  </si>
-  <si>
-    <t>Dom Camillo68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máquina Laranjja </t>
-  </si>
-  <si>
-    <t>LISI GREMISTA</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/5823700</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/20696550</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/30267301</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/51010813</t>
+    <t xml:space="preserve">A Lenda Super Vasco F.c </t>
+  </si>
+  <si>
+    <t>FBC Colorado</t>
+  </si>
+  <si>
+    <t>Mau Humor F.C.</t>
+  </si>
+  <si>
+    <t>Grêmio imortal 36</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/117598</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/186283</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/19033717</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/24856400</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5823700</v>
+        <v>117598</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>20696550</v>
+        <v>186283</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>30267301</v>
+        <v>19033717</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -472,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>51010813</v>
+        <v>24856400</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -480,10 +480,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="!/time/5823700"/>
-    <hyperlink ref="C3" r:id="rId2" location="!/time/20696550"/>
-    <hyperlink ref="C4" r:id="rId3" location="!/time/30267301"/>
-    <hyperlink ref="C5" r:id="rId4" location="!/time/51010813"/>
+    <hyperlink ref="C2" r:id="rId1" location="!/time/117598"/>
+    <hyperlink ref="C3" r:id="rId2" location="!/time/186283"/>
+    <hyperlink ref="C4" r:id="rId3" location="!/time/19033717"/>
+    <hyperlink ref="C5" r:id="rId4" location="!/time/24856400"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
